--- a/Examples/Hydrodynamic models/test case.xlsx
+++ b/Examples/Hydrodynamic models/test case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01Algorithms\Hydrology\HAPI\Examples\Hydrodynamic models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C19A6D-CB61-485E-8725-DA9BF518E51D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6514D848-7B92-4714-A2C3-7C0D16B08085}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13425" xr2:uid="{51C8DD68-2929-48FD-AB82-78B6F876CBB1}"/>
   </bookViews>
@@ -431,15 +431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCC0644-89DA-46C8-B57A-DAF636DCB539}">
-  <dimension ref="A1:Y43"/>
+  <dimension ref="A1:Z43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
@@ -452,7 +452,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -490,23 +490,23 @@
       <c r="R2">
         <v>2000</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>13</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>15</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>16</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -548,6 +548,10 @@
       </c>
       <c r="P3" t="s">
         <v>2</v>
+      </c>
+      <c r="Q3">
+        <f>O3*0.3048</f>
+        <v>60.96</v>
       </c>
       <c r="R3">
         <v>12</v>
@@ -559,25 +563,25 @@
         <f>(0.3048^3)*S3</f>
         <v>56.633693184000009</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>100</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>1</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <f>$O$3</f>
         <v>200</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <f>$O$6</f>
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -630,26 +634,26 @@
         <f t="shared" ref="T4:T12" si="0">(0.3048^3)*S4</f>
         <v>84.950539776000014</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>2</v>
       </c>
-      <c r="V4">
-        <f>V3-$O$5*$Q$11</f>
+      <c r="W4">
+        <f>W3-$O$5*$Q$11</f>
         <v>90</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>1</v>
       </c>
-      <c r="X4">
-        <f t="shared" ref="X4:X11" si="1">$O$3</f>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y11" si="1">$O$3</f>
         <v>200</v>
       </c>
-      <c r="Y4">
-        <f t="shared" ref="Y4:Y11" si="2">$O$6</f>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z11" si="2">$O$6</f>
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -699,26 +703,26 @@
         <f t="shared" si="0"/>
         <v>113.26738636800002</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>3</v>
       </c>
-      <c r="V5">
-        <f t="shared" ref="V5:V11" si="3">V4-$O$5*$Q$11</f>
+      <c r="W5">
+        <f t="shared" ref="W5:W11" si="3">W4-$O$5*$Q$11</f>
         <v>80</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>1</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <f t="shared" si="2"/>
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -768,26 +772,26 @@
         <f t="shared" si="0"/>
         <v>141.58423296000001</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>4</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>1</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <f t="shared" si="2"/>
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -831,26 +835,26 @@
         <f t="shared" si="0"/>
         <v>169.90107955200003</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>5</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>1</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <f t="shared" si="2"/>
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -903,26 +907,26 @@
         <f t="shared" si="0"/>
         <v>141.58423296000001</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>6</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>1</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <f t="shared" si="2"/>
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -975,26 +979,26 @@
         <f t="shared" si="0"/>
         <v>113.26738636800002</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>7</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>1</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <f t="shared" si="2"/>
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1051,26 +1055,26 @@
         <f t="shared" si="0"/>
         <v>84.950539776000014</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>8</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>1</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <f t="shared" si="2"/>
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1117,26 +1121,26 @@
         <f t="shared" si="0"/>
         <v>56.633693184000009</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>9</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>1</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <f t="shared" si="2"/>
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1181,7 +1185,7 @@
         <v>56.633693184000009</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1216,7 +1220,7 @@
         <v>2038.26</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1251,7 +1255,7 @@
         <v>2070.2800000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1286,7 +1290,7 @@
         <v>2118.81</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>

--- a/Examples/Hydrodynamic models/test case.xlsx
+++ b/Examples/Hydrodynamic models/test case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01Algorithms\Hydrology\HAPI\Examples\Hydrodynamic models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6514D848-7B92-4714-A2C3-7C0D16B08085}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681D37AB-4756-4056-B342-A51B09495234}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13425" xr2:uid="{51C8DD68-2929-48FD-AB82-78B6F876CBB1}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>rectangle channel</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>depth</t>
+  </si>
+  <si>
+    <t>Cr</t>
   </si>
 </sst>
 </file>
@@ -433,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCC0644-89DA-46C8-B57A-DAF636DCB539}">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="X3">
         <v>1</v>
@@ -639,17 +642,17 @@
       </c>
       <c r="W4">
         <f>W3-$O$5*$Q$11</f>
-        <v>90</v>
+        <v>990</v>
       </c>
       <c r="X4">
         <v>1</v>
       </c>
       <c r="Y4">
-        <f t="shared" ref="Y4:Y11" si="1">$O$3</f>
+        <f t="shared" ref="Y4:Y22" si="1">$O$3</f>
         <v>200</v>
       </c>
       <c r="Z4">
-        <f t="shared" ref="Z4:Z11" si="2">$O$6</f>
+        <f t="shared" ref="Z4:Z22" si="2">$O$6</f>
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
@@ -707,8 +710,8 @@
         <v>3</v>
       </c>
       <c r="W5">
-        <f t="shared" ref="W5:W11" si="3">W4-$O$5*$Q$11</f>
-        <v>80</v>
+        <f t="shared" ref="W5:W22" si="3">W4-$O$5*$Q$11</f>
+        <v>980</v>
       </c>
       <c r="X5">
         <v>1</v>
@@ -777,7 +780,7 @@
       </c>
       <c r="W6">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -840,7 +843,7 @@
       </c>
       <c r="W7">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>960</v>
       </c>
       <c r="X7">
         <v>1</v>
@@ -912,7 +915,7 @@
       </c>
       <c r="W8">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>950</v>
       </c>
       <c r="X8">
         <v>1</v>
@@ -984,7 +987,7 @@
       </c>
       <c r="W9">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>940</v>
       </c>
       <c r="X9">
         <v>1</v>
@@ -1060,7 +1063,7 @@
       </c>
       <c r="W10">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>930</v>
       </c>
       <c r="X10">
         <v>1</v>
@@ -1126,7 +1129,7 @@
       </c>
       <c r="W11">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>920</v>
       </c>
       <c r="X11">
         <v>1</v>
@@ -1184,6 +1187,24 @@
         <f t="shared" si="0"/>
         <v>56.633693184000009</v>
       </c>
+      <c r="V12">
+        <v>10</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="3"/>
+        <v>910</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1219,6 +1240,24 @@
       <c r="K13">
         <v>2038.26</v>
       </c>
+      <c r="V13">
+        <v>11</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1254,6 +1293,24 @@
       <c r="K14">
         <v>2070.2800000000002</v>
       </c>
+      <c r="V14">
+        <v>12</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="3"/>
+        <v>890</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1289,6 +1346,27 @@
       <c r="K15">
         <v>2118.81</v>
       </c>
+      <c r="N15" t="s">
+        <v>17</v>
+      </c>
+      <c r="V15">
+        <v>13</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="3"/>
+        <v>880</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1324,8 +1402,26 @@
       <c r="K16">
         <v>2187.87</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="V16">
+        <v>14</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="3"/>
+        <v>870</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1359,8 +1455,26 @@
       <c r="K17">
         <v>2281.06</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="V17">
+        <v>15</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="3"/>
+        <v>860</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1394,8 +1508,26 @@
       <c r="K18">
         <v>2401.1799999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="V18">
+        <v>16</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="3"/>
+        <v>850</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>48</v>
       </c>
@@ -1426,8 +1558,26 @@
       <c r="K19">
         <v>2549.88</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="V19">
+        <v>17</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="3"/>
+        <v>840</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>51</v>
       </c>
@@ -1458,8 +1608,26 @@
       <c r="K20">
         <v>2727.41</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="V20">
+        <v>18</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="3"/>
+        <v>830</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>54</v>
       </c>
@@ -1490,8 +1658,26 @@
       <c r="K21">
         <v>2932.56</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="V21">
+        <v>19</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="3"/>
+        <v>820</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>57</v>
       </c>
@@ -1522,8 +1708,26 @@
       <c r="K22">
         <v>3162.79</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="V22">
+        <v>20</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="3"/>
+        <v>810</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>60</v>
       </c>
@@ -1555,7 +1759,7 @@
         <v>3414.58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>63</v>
       </c>
@@ -1587,7 +1791,7 @@
         <v>3682.72</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>66</v>
       </c>
@@ -1619,7 +1823,7 @@
         <v>3958.98</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>69</v>
       </c>
@@ -1651,7 +1855,7 @@
         <v>4231.5200000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>72</v>
       </c>
@@ -1683,7 +1887,7 @@
         <v>4485.96</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>75</v>
       </c>
@@ -1715,7 +1919,7 @@
         <v>4707.91</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>78</v>
       </c>
@@ -1747,7 +1951,7 @@
         <v>4885.6099999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>81</v>
       </c>
@@ -1779,7 +1983,7 @@
         <v>5011.8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>84</v>
       </c>
@@ -1811,7 +2015,7 @@
         <v>5084.16</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>87</v>
       </c>
@@ -2206,10 +2410,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9B5CF7-EE72-4A6A-B7D5-91B0B7CF23F7}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2236,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2253,7 +2457,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>90</v>
+        <v>990</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2270,7 +2474,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2287,7 +2491,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2304,7 +2508,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>960</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2321,7 +2525,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>950</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2338,7 +2542,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>940</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2355,7 +2559,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>930</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2372,15 +2576,202 @@
         <v>9</v>
       </c>
       <c r="B10">
+        <v>920</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>910</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>900</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>890</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+      <c r="E13">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>880</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+      <c r="E14">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>870</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+      <c r="E15">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>860</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>200</v>
+      </c>
+      <c r="E16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>850</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
+      <c r="E17">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>840</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>200</v>
+      </c>
+      <c r="E18">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>830</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>200</v>
+      </c>
+      <c r="E19">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>820</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>200</v>
+      </c>
+      <c r="E20">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>200</v>
-      </c>
-      <c r="E10">
+      <c r="B21">
+        <v>810</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>200</v>
+      </c>
+      <c r="E21">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
